--- a/obs_data/measured_crop/obs_yield_e26_2025_02_06.xlsx
+++ b/obs_data/measured_crop/obs_yield_e26_2025_02_06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/aolivo_uoguelph_ca/Documents/0_all_files_postdoc/1_projects/1_modeling_div_conv/1_modeling/r_analysis/data/measured_crop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/aolivo_uoguelph_ca/Documents/0_all_files_postdoc/1_projects/1_modeling_div_conv/1_modeling/1_e26_r_analysis/obs_data/measured_crop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="8_{E786BD3C-164E-4648-8E8C-88096A2ABFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB75087-6726-4047-9C07-03D337B7F092}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{E786BD3C-164E-4648-8E8C-88096A2ABFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCF0851A-53E8-47FA-AD21-C668DBB9CA47}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28E8ABF2-1F91-4B35-BD5E-AD8FC7AD1FEB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This columns contains grain yield (cash crops) and biomass yield (cover crops)</t>
+This columns contains grain yield (cash crops) and biomass yield (cover crops); all data is in a dry matter basis.</t>
         </r>
       </text>
     </comment>
@@ -71,7 +71,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustin Olivo:</t>
         </r>
@@ -80,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Everything in yellow I am waiting on plant analysis to be completed.</t>
@@ -105,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustin Olivo:</t>
         </r>
@@ -114,7 +114,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This tab contains the same values as the main one, except that they are organized in a slightly different way due to the format I needed to read thins into R.</t>
@@ -271,7 +271,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,19 +418,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1269,9 +1256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019E4433-4330-44A0-ADFA-6674CAD71DDA}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="A44:F45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2598,7 +2585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2633,7 +2620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>2022</v>
       </c>
@@ -2668,7 +2655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>2022</v>
       </c>
@@ -2703,7 +2690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>2022</v>
       </c>
@@ -2738,7 +2725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11">
         <v>2022</v>
       </c>
@@ -2773,7 +2760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2023</v>
       </c>
@@ -2804,8 +2791,11 @@
       <c r="Q38" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="R38">
+        <v>3.6850000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2023</v>
       </c>
@@ -2836,8 +2826,11 @@
       <c r="Q39" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="R39">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2023</v>
       </c>
@@ -2868,8 +2861,11 @@
       <c r="Q40" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="R40">
+        <v>4.8209999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2023</v>
       </c>
@@ -2900,8 +2896,11 @@
       <c r="Q41" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R41">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2023</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2023</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2024</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2024</v>
       </c>
@@ -3045,7 +3044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80129D79-710C-4724-8B37-65DFAB94B8F9}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
